--- a/Input/ReadIn_control.xlsx
+++ b/Input/ReadIn_control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\magistrale\3-4_Thesis\GitHub_thesis\C3D_computation\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D3C59-3191-4D04-AC78-F338BCF0C1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6D337B-700B-4BD0-93D3-C926A0B0EE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{117B0032-FDCA-4513-867A-C51C15FFEA77}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{117B0032-FDCA-4513-867A-C51C15FFEA77}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>Datafile</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>LKin1</t>
   </si>
@@ -60,9 +57,6 @@
     <t>RKinem2</t>
   </si>
   <si>
-    <t>Affected Side</t>
-  </si>
-  <si>
     <t>S51gait02.c3d</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>S51gait04.c3d</t>
   </si>
   <si>
-    <t>subID</t>
-  </si>
-  <si>
     <t>S51gait01.c3d</t>
   </si>
   <si>
@@ -91,6 +82,30 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>Filenames</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>LKin3</t>
+  </si>
+  <si>
+    <t>RKin3</t>
+  </si>
+  <si>
+    <t>LKinem3</t>
+  </si>
+  <si>
+    <t>RKinem3</t>
+  </si>
+  <si>
+    <t>AffectedSide</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -479,7 +494,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,47 +506,56 @@
     <col min="5" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -557,10 +581,10 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -569,30 +593,45 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -601,30 +640,45 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -633,30 +687,45 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -665,30 +734,45 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -697,13 +781,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -713,15 +797,30 @@
       </c>
       <c r="J6">
         <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -729,30 +828,45 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -761,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -777,6 +891,21 @@
       </c>
       <c r="J8">
         <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Input/ReadIn_control.xlsx
+++ b/Input/ReadIn_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\magistrale\3-4_Thesis\GitHub_thesis\C3D_computation\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6D337B-700B-4BD0-93D3-C926A0B0EE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64D27E4-AFCF-42AD-9B26-AF6DBE4C9974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{117B0032-FDCA-4513-867A-C51C15FFEA77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>LKin1</t>
   </si>
@@ -81,9 +81,6 @@
     <t>RKinem1</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Filenames</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,19 +515,19 @@
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -533,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -542,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
@@ -551,10 +554,10 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -584,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -623,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -631,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
@@ -678,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
@@ -725,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -764,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
@@ -772,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -811,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
@@ -819,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -866,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -905,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Input/ReadIn_control.xlsx
+++ b/Input/ReadIn_control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\magistrale\3-4_Thesis\GitHub_thesis\C3D_computation\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64D27E4-AFCF-42AD-9B26-AF6DBE4C9974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DD1EBD-6D75-4C41-849E-4174CFD52333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{117B0032-FDCA-4513-867A-C51C15FFEA77}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{117B0032-FDCA-4513-867A-C51C15FFEA77}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>LKin1</t>
   </si>
@@ -105,10 +105,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
+    <t>S51</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -822,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -869,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>

--- a/Input/ReadIn_control.xlsx
+++ b/Input/ReadIn_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\magistrale\3-4_Thesis\GitHub_thesis\C3D_computation\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DD1EBD-6D75-4C41-849E-4174CFD52333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07080A00-051E-45AE-A827-F328D1314D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{117B0032-FDCA-4513-867A-C51C15FFEA77}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Input/ReadIn_control.xlsx
+++ b/Input/ReadIn_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\magistrale\3-4_Thesis\GitHub_thesis\C3D_computation\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07080A00-051E-45AE-A827-F328D1314D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D2C5E-F9D8-49D8-B769-C2106FC9F82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{117B0032-FDCA-4513-867A-C51C15FFEA77}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>S51</t>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
